--- a/biology/Zoologie/Faux-cuivré_berbère/Faux-cuivré_berbère.xlsx
+++ b/biology/Zoologie/Faux-cuivré_berbère/Faux-cuivré_berbère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_berb%C3%A8re</t>
+          <t>Faux-cuivré_berbère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis zohra
 Le Faux-cuivré berbère (Cigaritis zohra) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Aphnaeinae, du genre Cigaritis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_berb%C3%A8re</t>
+          <t>Faux-cuivré_berbère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cigaritis zohra nommé par Hugues-Fleury Donzel (en) en 1847.
-Noms vernaculaires
-Le Faux-cuivré berbère se nomme Donzel's Silver-line en anglais[1].
-Sous-espèces
-Cigaritis zohra zohra présent en Algérie.
-Cigaritis zohra delacrei
-Cigaritis zohra monticola Riley, 1925 ; ou Cigaritis monticola le Cuivré marocain élevé au rang d'espèce, présent au Maroc à Tizi-Taghzeft, au Moyen Atlas[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cigaritis zohra nommé par Hugues-Fleury Donzel (en) en 1847.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_berb%C3%A8re</t>
+          <t>Faux-cuivré_berbère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faux-cuivré berbère est un petit papillon à queues courtes présentant un dessus orange vif orné de macules foncées formant des dessins variables.
-Le verso présente des dessins marron sur un fond orange aux antérieures et blanc aux postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré berbère se nomme Donzel's Silver-line en anglais.
 </t>
         </is>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_berb%C3%A8re</t>
+          <t>Faux-cuivré_berbère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,17 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La chenille est soignée par des fourmis dont Crematogaster laestrygon[2].
-Période de vol et hivernation
-Il vole en une générations entre avril et juin[2].
-Plantes hôtes
-Sa plante hôte est Coronilla minima[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cigaritis zohra zohra présent en Algérie.
+Cigaritis zohra delacrei
+Cigaritis zohra monticola Riley, 1925 ; ou Cigaritis monticola le Cuivré marocain élevé au rang d'espèce, présent au Maroc à Tizi-Taghzeft, au Moyen Atlas.</t>
         </is>
       </c>
     </row>
@@ -597,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_berb%C3%A8re</t>
+          <t>Faux-cuivré_berbère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,16 +629,229 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré berbère est un petit papillon à queues courtes présentant un dessus orange vif orné de macules foncées formant des dessins variables.
+Le verso présente des dessins marron sur un fond orange aux antérieures et blanc aux postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est soignée par des fourmis dont Crematogaster laestrygon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une générations entre avril et juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Coronilla minima.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest et le centre de l'Algérie et au Maroc[1].
-Biotope
-Il réside sur les pentes herbues[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest et le centre de l'Algérie et au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur les pentes herbues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_berbère</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_berb%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
